--- a/medicine/Psychotrope/Aktienbrauerei_Kaufbeuren/Aktienbrauerei_Kaufbeuren.xlsx
+++ b/medicine/Psychotrope/Aktienbrauerei_Kaufbeuren/Aktienbrauerei_Kaufbeuren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aktienbrauerei Kaufbeuren est une brasserie à Kaufbeuren.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1308, un document dit qu'un certain Heinrich le Twinger, citoyen de Buron (Kaufbeuren), fait comme seul héritier l'hôpital du Saint-Esprit de la ville. Il hérite notamment de sa brasserie.
 En 1807, le siège actuel d'exploitation est créé par la construction d'une cave à bière à la place du Tänzelhölzchen. Le 17 mars 1885, la brasserie, succédant à la brasserie Zur Traube de Gustav Walch, est transformée en Actienbrauerei zur Traube. En 1907, elle fusionne avec la Löwen-Brauerei E. Wiedemann et la société est initialement renommée Aktienbrauerei Traube et Leo. En 1920, elle prend le nom d'Aktienbrauerei Kaufbeuren. Quelques années plus tard, elle acquiert la majorité de Lammbrauerei Aktiengesellschaft à Mindelheim.
@@ -548,7 +562,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aktienbrauerei Kaufbeuren brasse des bières de recette régionale traditionnelle comme la Helles et la Weißbier, mais aussi la pils. Une particularité est le Buronator, une bock.
 Les boissons sans alcool comme le Spezi, la limonade, l'eau gazeuse ou le jus de fruits sont produites sous la marque Leo.
